--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682906.4073969868</v>
+        <v>-685565.9255089997</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>42.98187485128388</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>28.65760221190948</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>27.91803873937445</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>91.6059727327752</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>266.5577439313426</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>207.1701612332468</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3107721080273</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>68.36045235641248</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>260.670228441731</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>71.84249363554711</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>103.3610674630848</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>124.8582630525029</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058143</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>147.6410308210114</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>109.0909680372356</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520937</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>27.25908948141992</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>40.53421095546918</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>81.278598673301</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>140.939995452456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>180.6687625091741</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.76895293959859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545305</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545305</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1677.574522601424</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="C2" t="n">
-        <v>1677.574522601424</v>
+        <v>495.898609785037</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>495.898609785037</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>495.898609785037</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>495.898609785037</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>80.19385950932582</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>2064.174362665546</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>2064.174362665546</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.7887257848004</v>
+        <v>518.0887888085541</v>
       </c>
       <c r="C4" t="n">
-        <v>494.7887257848004</v>
+        <v>518.0887888085541</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
         <v>199.9856847044969</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1505.662674459398</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1282.684193654133</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>993.5658561579711</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384193</v>
+        <v>738.8813679520842</v>
       </c>
       <c r="W4" t="n">
-        <v>989.7610553472321</v>
+        <v>738.8813679520842</v>
       </c>
       <c r="X4" t="n">
-        <v>897.2297697585702</v>
+        <v>738.8813679520842</v>
       </c>
       <c r="Y4" t="n">
-        <v>676.4371906150401</v>
+        <v>518.0887888085541</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>702.7912425462216</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="C5" t="n">
-        <v>333.8287256058099</v>
+        <v>1213.561337192729</v>
       </c>
       <c r="D5" t="n">
-        <v>333.8287256058099</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>333.8287256058099</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>326.8832248566064</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847235</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586155</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1089.391082610343</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>527.2645251530219</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844935</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.361824079677</v>
+        <v>642.7634789947318</v>
       </c>
       <c r="C7" t="n">
-        <v>741.361824079677</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D7" t="n">
-        <v>741.361824079677</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>593.4487304972839</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>446.5587829993735</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4720,55 +4720,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>962.1544032232072</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>962.1544032232072</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X7" t="n">
-        <v>962.1544032232072</v>
+        <v>1045.204522968502</v>
       </c>
       <c r="Y7" t="n">
-        <v>741.361824079677</v>
+        <v>824.4119438249716</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1126.761759316041</v>
+        <v>1360.644130935923</v>
       </c>
       <c r="C8" t="n">
-        <v>757.7992423756293</v>
+        <v>991.6816139955117</v>
       </c>
       <c r="D8" t="n">
-        <v>399.5335437688788</v>
+        <v>991.6816139955117</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166253</v>
+        <v>605.8933613972674</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816094</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872926</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1126.761759316041</v>
+        <v>1747.243971000045</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>876.2621477111344</v>
+        <v>283.2213908674006</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>283.2213908674006</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>283.2213908674006</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.910612541374</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="X10" t="n">
-        <v>1057.910612541374</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="Y10" t="n">
-        <v>1057.910612541374</v>
+        <v>283.2213908674006</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192548</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876704</v>
       </c>
       <c r="C16" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876704</v>
       </c>
       <c r="D16" t="n">
-        <v>613.6374994204285</v>
+        <v>580.8993044876704</v>
       </c>
       <c r="E16" t="n">
-        <v>613.6374994204285</v>
+        <v>432.9862109052773</v>
       </c>
       <c r="F16" t="n">
-        <v>466.7475519225181</v>
+        <v>286.0962634073669</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>286.0962634073669</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179101</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277355</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>216.8470138298251</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5180363231801</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6280888252697</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,31 +5908,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5944,16 +5944,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1613.067925832146</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1323.650755795185</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1095.661204897168</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.8686257536381</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.469384076044</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.867919098985</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
         <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>60.3579772739767</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921338</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>105.1672460959149</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>311.7011667693991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33.02946548508564</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>272.3609503504959</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>29.8874153083935</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229324</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>196.035835308661</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>17.88310747125743</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.20374480898829</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101264</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>121.3563835367924</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>124.9899273367997</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.24553961896784</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.197647871372</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.3575234924705342</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1016260.054521202</v>
+        <v>1016260.054521201</v>
       </c>
     </row>
     <row r="3">
@@ -26323,19 +26323,19 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152035.0117225584</v>
+        <v>152035.0117225586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60039.49396962071</v>
+        <v>60039.49396962057</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426732025</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982547</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.1716898255</v>
+        <v>16108.17168982547</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982545</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1060457.929859916</v>
+        <v>-1060783.274950197</v>
       </c>
       <c r="C6" t="n">
+        <v>19056.75825757656</v>
+      </c>
+      <c r="D6" t="n">
         <v>19056.75825757658</v>
       </c>
-      <c r="D6" t="n">
-        <v>19056.75825757663</v>
-      </c>
       <c r="E6" t="n">
-        <v>-374581.3039681831</v>
+        <v>-374616.0418936192</v>
       </c>
       <c r="F6" t="n">
-        <v>132904.1376563627</v>
+        <v>132869.399730927</v>
       </c>
       <c r="G6" t="n">
-        <v>132904.1376563626</v>
+        <v>132869.399730927</v>
       </c>
       <c r="H6" t="n">
-        <v>132904.1376563627</v>
+        <v>132869.399730927</v>
       </c>
       <c r="I6" t="n">
-        <v>132904.1376563626</v>
+        <v>132869.3997309272</v>
       </c>
       <c r="J6" t="n">
-        <v>-34701.04015361988</v>
+        <v>-34735.77807905551</v>
       </c>
       <c r="K6" t="n">
-        <v>132904.1376563627</v>
+        <v>132869.399730927</v>
       </c>
       <c r="L6" t="n">
-        <v>132904.1376563627</v>
+        <v>132869.399730927</v>
       </c>
       <c r="M6" t="n">
-        <v>-24994.7683070145</v>
+        <v>-24994.76830701464</v>
       </c>
       <c r="N6" t="n">
         <v>127040.243415544</v>
       </c>
       <c r="O6" t="n">
+        <v>127040.2434155442</v>
+      </c>
+      <c r="P6" t="n">
         <v>127040.2434155441</v>
-      </c>
-      <c r="P6" t="n">
-        <v>127040.2434155442</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>373.8465802566258</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>356.3505233476601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>166.744421622363</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>134.103682656262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>88.12529768934036</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>204.3775415397072</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>26.99582793677692</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>157.3492030326247</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>121.2601416305308</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>335.0335521061643</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>63.88575363554307</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>21.57569959406626</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283056</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>246.9454735174615</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156661</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>291.7547423393997</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394658</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
